--- a/biology/Zoologie/Ceraeochrysa/Ceraeochrysa.xlsx
+++ b/biology/Zoologie/Ceraeochrysa/Ceraeochrysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceraeochrysa est un genre d'insectes de l'ordre de névroptères, de la famille des Chrysopidae, de la sous-famille des Chrysopinae et de la tribu des Chrysopini.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceraeochrysa acmon -  Ceraeochrysa acutipuppis -  Ceraeochrysa adornata -  Ceraeochrysa anceps -  Ceraeochrysa angulata -  Ceraeochrysa ariasi -  Ceraeochrysa arioles -  Ceraeochrysa aroguesina -  Ceraeochrysa berlandi -  Ceraeochrysa caligata -  Ceraeochrysa castilloi -  Ceraeochrysa caucana -  Ceraeochrysa cincta -  Ceraeochrysa claveri -  Ceraeochrysa costaricensis -  Ceraeochrysa cubana -  Ceraeochrysa discolor -  Ceraeochrysa dislepis -  Ceraeochrysa dolichosvela -  Ceraeochrysa effusa -  Ceraeochrysa elegans -  Ceraeochrysa everes -  Ceraeochrysa fairchildi -  Ceraeochrysa falcifera -  Ceraeochrysa fiebrigi -  Ceraeochrysa gradata -  Ceraeochrysa inbio -  Ceraeochrysa indicata -  Ceraeochrysa infausta -  Ceraeochrysa josephina -  Ceraeochrysa lateralis -  Ceraeochrysa laufferi -  Ceraeochrysa lineaticornis -  Ceraeochrysa melaenopareia -  Ceraeochrysa michaelmuris -  Ceraeochrysa montoyana -  Ceraeochrysa nigripedis -  Ceraeochrysa nigripes -  Ceraeochrysa paraguaria -  Ceraeochrysa pittieri -  Ceraeochrysa pseudovaricosa -  Ceraeochrysa rafaeli -  Ceraeochrysa reddyi -  Ceraeochrysa reducta -  Ceraeochrysa rochina -  Ceraeochrysa sanchezi -  Ceraeochrysa scapularis -  Ceraeochrysa silvanoi -  Ceraeochrysa smithi -  Ceraeochrysa squalidens -  Ceraeochrysa squama -  Ceraeochrysa tauberae -  Ceraeochrysa tenuicornis -  Ceraeochrysa torresi -  Ceraeochrysa tucumana -  Ceraeochrysa valida
 </t>
